--- a/data/original/CHAPTER_3_VISUALS.xlsx
+++ b/data/original/CHAPTER_3_VISUALS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\project\storytelling-with-data-reproduced-by-tableau\data\original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162E1CC0-6C7F-4040-B424-933EEF99599F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6D545A-C6C2-4847-8849-04E479DBA341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIG0301-0312" sheetId="11" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="FIG0315-16" sheetId="1" r:id="rId3"/>
     <sheet name="FIG0317-24" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1073,6 +1073,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1080,9 +1083,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -20196,14 +20196,14 @@
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="35"/>
-      <c r="K6" s="98" t="s">
+      <c r="K6" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98" t="s">
+      <c r="L6" s="95"/>
+      <c r="M6" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="98"/>
+      <c r="N6" s="95"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="36"/>
@@ -20229,10 +20229,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="47"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="68"/>
-      <c r="F8" s="97"/>
+      <c r="F8" s="98"/>
       <c r="G8" s="43"/>
       <c r="H8" s="43"/>
       <c r="I8" s="44"/>
@@ -20251,10 +20251,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="47"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="68"/>
-      <c r="F9" s="97"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="44"/>
@@ -20273,10 +20273,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="47"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="68"/>
-      <c r="F10" s="97"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="43"/>
       <c r="H10" s="43"/>
       <c r="I10" s="44"/>
@@ -20295,10 +20295,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="47"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="68"/>
-      <c r="F11" s="97"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="44"/>
@@ -20317,10 +20317,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="47"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="68"/>
-      <c r="F12" s="97"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="44"/>
@@ -20335,10 +20335,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="47"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="68"/>
-      <c r="F13" s="97"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="44"/>
@@ -20351,10 +20351,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="47"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
       <c r="E14" s="68"/>
-      <c r="F14" s="97"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="43"/>
       <c r="H14" s="43"/>
       <c r="I14" s="44"/>
@@ -20410,70 +20410,70 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="47"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="97"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="43"/>
       <c r="H20" s="43"/>
       <c r="I20" s="44"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="47"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="68"/>
-      <c r="F21" s="97"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="47"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
       <c r="E22" s="68"/>
-      <c r="F22" s="97"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
       <c r="I22" s="44"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="47"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="97"/>
       <c r="E23" s="68"/>
-      <c r="F23" s="97"/>
+      <c r="F23" s="98"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
       <c r="I23" s="44"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="47"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97"/>
       <c r="E24" s="68"/>
-      <c r="F24" s="97"/>
+      <c r="F24" s="98"/>
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
       <c r="I24" s="44"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="47"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="97"/>
       <c r="E25" s="68"/>
-      <c r="F25" s="97"/>
+      <c r="F25" s="98"/>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
       <c r="I25" s="44"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="47"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="97"/>
       <c r="E26" s="68"/>
-      <c r="F26" s="97"/>
+      <c r="F26" s="98"/>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
       <c r="I26" s="44"/>
@@ -20520,70 +20520,70 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="47"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
       <c r="E32" s="68"/>
-      <c r="F32" s="97"/>
+      <c r="F32" s="98"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
       <c r="I32" s="44"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="47"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="97"/>
       <c r="E33" s="68"/>
-      <c r="F33" s="97"/>
+      <c r="F33" s="98"/>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
       <c r="I33" s="44"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="47"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
       <c r="E34" s="68"/>
-      <c r="F34" s="97"/>
+      <c r="F34" s="98"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
       <c r="I34" s="44"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="47"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="97"/>
       <c r="E35" s="68"/>
-      <c r="F35" s="97"/>
+      <c r="F35" s="98"/>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
       <c r="I35" s="44"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="47"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="96"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="97"/>
       <c r="E36" s="68"/>
-      <c r="F36" s="97"/>
+      <c r="F36" s="98"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
       <c r="I36" s="44"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="47"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="96"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="97"/>
       <c r="E37" s="68"/>
-      <c r="F37" s="97"/>
+      <c r="F37" s="98"/>
       <c r="G37" s="43"/>
       <c r="H37" s="43"/>
       <c r="I37" s="44"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="47"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="96"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="97"/>
       <c r="E38" s="68"/>
-      <c r="F38" s="97"/>
+      <c r="F38" s="98"/>
       <c r="G38" s="43"/>
       <c r="H38" s="43"/>
       <c r="I38" s="44"/>
@@ -20631,70 +20631,70 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="47"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="97"/>
       <c r="E44" s="68"/>
-      <c r="F44" s="97"/>
+      <c r="F44" s="98"/>
       <c r="G44" s="43"/>
       <c r="H44" s="43"/>
       <c r="I44" s="44"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="47"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="97"/>
       <c r="E45" s="68"/>
-      <c r="F45" s="97"/>
+      <c r="F45" s="98"/>
       <c r="G45" s="43"/>
       <c r="H45" s="43"/>
       <c r="I45" s="44"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="47"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="96"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="97"/>
       <c r="E46" s="68"/>
-      <c r="F46" s="97"/>
+      <c r="F46" s="98"/>
       <c r="G46" s="43"/>
       <c r="H46" s="43"/>
       <c r="I46" s="44"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="47"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="97"/>
       <c r="E47" s="68"/>
-      <c r="F47" s="97"/>
+      <c r="F47" s="98"/>
       <c r="G47" s="43"/>
       <c r="H47" s="43"/>
       <c r="I47" s="44"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="47"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="96"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="97"/>
       <c r="E48" s="68"/>
-      <c r="F48" s="97"/>
+      <c r="F48" s="98"/>
       <c r="G48" s="43"/>
       <c r="H48" s="43"/>
       <c r="I48" s="44"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="47"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="96"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="97"/>
       <c r="E49" s="68"/>
-      <c r="F49" s="97"/>
+      <c r="F49" s="98"/>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>
       <c r="I49" s="44"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="47"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="97"/>
       <c r="E50" s="68"/>
-      <c r="F50" s="97"/>
+      <c r="F50" s="98"/>
       <c r="G50" s="43"/>
       <c r="H50" s="43"/>
       <c r="I50" s="44"/>
@@ -20741,70 +20741,70 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="47"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="96"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="97"/>
       <c r="E56" s="68"/>
-      <c r="F56" s="97"/>
+      <c r="F56" s="98"/>
       <c r="G56" s="43"/>
       <c r="H56" s="43"/>
       <c r="I56" s="44"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="47"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="97"/>
       <c r="E57" s="68"/>
-      <c r="F57" s="97"/>
+      <c r="F57" s="98"/>
       <c r="G57" s="43"/>
       <c r="H57" s="43"/>
       <c r="I57" s="44"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="47"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="96"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="97"/>
       <c r="E58" s="68"/>
-      <c r="F58" s="97"/>
+      <c r="F58" s="98"/>
       <c r="G58" s="43"/>
       <c r="H58" s="43"/>
       <c r="I58" s="44"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="47"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="97"/>
       <c r="E59" s="68"/>
-      <c r="F59" s="97"/>
+      <c r="F59" s="98"/>
       <c r="G59" s="43"/>
       <c r="H59" s="43"/>
       <c r="I59" s="44"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="47"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="96"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="97"/>
       <c r="E60" s="68"/>
-      <c r="F60" s="97"/>
+      <c r="F60" s="98"/>
       <c r="G60" s="43"/>
       <c r="H60" s="43"/>
       <c r="I60" s="44"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="47"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="96"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="97"/>
       <c r="E61" s="68"/>
-      <c r="F61" s="97"/>
+      <c r="F61" s="98"/>
       <c r="G61" s="43"/>
       <c r="H61" s="43"/>
       <c r="I61" s="44"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="47"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="97"/>
       <c r="E62" s="68"/>
-      <c r="F62" s="97"/>
+      <c r="F62" s="98"/>
       <c r="G62" s="43"/>
       <c r="H62" s="43"/>
       <c r="I62" s="44"/>
@@ -20851,70 +20851,70 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="47"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="97"/>
       <c r="E68" s="68"/>
-      <c r="F68" s="97"/>
+      <c r="F68" s="98"/>
       <c r="G68" s="43"/>
       <c r="H68" s="43"/>
       <c r="I68" s="44"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="47"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="96"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="97"/>
       <c r="E69" s="68"/>
-      <c r="F69" s="97"/>
+      <c r="F69" s="98"/>
       <c r="G69" s="43"/>
       <c r="H69" s="43"/>
       <c r="I69" s="44"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="47"/>
-      <c r="C70" s="95"/>
-      <c r="D70" s="96"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="97"/>
       <c r="E70" s="68"/>
-      <c r="F70" s="97"/>
+      <c r="F70" s="98"/>
       <c r="G70" s="43"/>
       <c r="H70" s="43"/>
       <c r="I70" s="44"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="47"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="96"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="97"/>
       <c r="E71" s="68"/>
-      <c r="F71" s="97"/>
+      <c r="F71" s="98"/>
       <c r="G71" s="43"/>
       <c r="H71" s="43"/>
       <c r="I71" s="44"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="47"/>
-      <c r="C72" s="95"/>
-      <c r="D72" s="96"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="97"/>
       <c r="E72" s="68"/>
-      <c r="F72" s="97"/>
+      <c r="F72" s="98"/>
       <c r="G72" s="43"/>
       <c r="H72" s="43"/>
       <c r="I72" s="44"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="47"/>
-      <c r="C73" s="95"/>
-      <c r="D73" s="96"/>
+      <c r="C73" s="96"/>
+      <c r="D73" s="97"/>
       <c r="E73" s="68"/>
-      <c r="F73" s="97"/>
+      <c r="F73" s="98"/>
       <c r="G73" s="43"/>
       <c r="H73" s="43"/>
       <c r="I73" s="44"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="47"/>
-      <c r="C74" s="95"/>
-      <c r="D74" s="96"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="97"/>
       <c r="E74" s="68"/>
-      <c r="F74" s="97"/>
+      <c r="F74" s="98"/>
       <c r="G74" s="43"/>
       <c r="H74" s="43"/>
       <c r="I74" s="44"/>
@@ -20937,12 +20937,6 @@
     <row r="79" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C8:D14"/>
-    <mergeCell ref="F8:F14"/>
-    <mergeCell ref="C20:D26"/>
-    <mergeCell ref="F20:F26"/>
     <mergeCell ref="C68:D74"/>
     <mergeCell ref="F68:F74"/>
     <mergeCell ref="C32:D38"/>
@@ -20951,6 +20945,12 @@
     <mergeCell ref="F44:F50"/>
     <mergeCell ref="C56:D62"/>
     <mergeCell ref="F56:F62"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C8:D14"/>
+    <mergeCell ref="F8:F14"/>
+    <mergeCell ref="C20:D26"/>
+    <mergeCell ref="F20:F26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -20967,9 +20967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21649,9 +21649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/original/CHAPTER_3_VISUALS.xlsx
+++ b/data/original/CHAPTER_3_VISUALS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\project\storytelling-with-data-reproduced-by-tableau\data\original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6D545A-C6C2-4847-8849-04E479DBA341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FF0034-C176-4C23-8432-0C20D352AF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIG0301-0312" sheetId="11" r:id="rId1"/>
@@ -1073,9 +1073,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1083,6 +1080,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -20196,14 +20196,14 @@
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="35"/>
-      <c r="K6" s="95" t="s">
+      <c r="K6" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95" t="s">
+      <c r="L6" s="98"/>
+      <c r="M6" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="95"/>
+      <c r="N6" s="98"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="36"/>
@@ -20229,10 +20229,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="47"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="68"/>
-      <c r="F8" s="98"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="43"/>
       <c r="H8" s="43"/>
       <c r="I8" s="44"/>
@@ -20251,10 +20251,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="47"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="68"/>
-      <c r="F9" s="98"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="44"/>
@@ -20273,10 +20273,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="47"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="68"/>
-      <c r="F10" s="98"/>
+      <c r="F10" s="97"/>
       <c r="G10" s="43"/>
       <c r="H10" s="43"/>
       <c r="I10" s="44"/>
@@ -20295,10 +20295,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="47"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="68"/>
-      <c r="F11" s="98"/>
+      <c r="F11" s="97"/>
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="44"/>
@@ -20317,10 +20317,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="47"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="68"/>
-      <c r="F12" s="98"/>
+      <c r="F12" s="97"/>
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="44"/>
@@ -20335,10 +20335,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="47"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="68"/>
-      <c r="F13" s="98"/>
+      <c r="F13" s="97"/>
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="44"/>
@@ -20351,10 +20351,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="47"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="68"/>
-      <c r="F14" s="98"/>
+      <c r="F14" s="97"/>
       <c r="G14" s="43"/>
       <c r="H14" s="43"/>
       <c r="I14" s="44"/>
@@ -20410,70 +20410,70 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="47"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="98"/>
+      <c r="F20" s="97"/>
       <c r="G20" s="43"/>
       <c r="H20" s="43"/>
       <c r="I20" s="44"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="47"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="68"/>
-      <c r="F21" s="98"/>
+      <c r="F21" s="97"/>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="47"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
       <c r="E22" s="68"/>
-      <c r="F22" s="98"/>
+      <c r="F22" s="97"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
       <c r="I22" s="44"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="47"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
       <c r="E23" s="68"/>
-      <c r="F23" s="98"/>
+      <c r="F23" s="97"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
       <c r="I23" s="44"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="47"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="97"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="96"/>
       <c r="E24" s="68"/>
-      <c r="F24" s="98"/>
+      <c r="F24" s="97"/>
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
       <c r="I24" s="44"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="47"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="96"/>
       <c r="E25" s="68"/>
-      <c r="F25" s="98"/>
+      <c r="F25" s="97"/>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
       <c r="I25" s="44"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="47"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="97"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="96"/>
       <c r="E26" s="68"/>
-      <c r="F26" s="98"/>
+      <c r="F26" s="97"/>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
       <c r="I26" s="44"/>
@@ -20520,70 +20520,70 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="47"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="97"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="96"/>
       <c r="E32" s="68"/>
-      <c r="F32" s="98"/>
+      <c r="F32" s="97"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
       <c r="I32" s="44"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="47"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="97"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="96"/>
       <c r="E33" s="68"/>
-      <c r="F33" s="98"/>
+      <c r="F33" s="97"/>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
       <c r="I33" s="44"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="47"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="97"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="68"/>
-      <c r="F34" s="98"/>
+      <c r="F34" s="97"/>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
       <c r="I34" s="44"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="47"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="97"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="96"/>
       <c r="E35" s="68"/>
-      <c r="F35" s="98"/>
+      <c r="F35" s="97"/>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
       <c r="I35" s="44"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="47"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="97"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="96"/>
       <c r="E36" s="68"/>
-      <c r="F36" s="98"/>
+      <c r="F36" s="97"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
       <c r="I36" s="44"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="47"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="97"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="96"/>
       <c r="E37" s="68"/>
-      <c r="F37" s="98"/>
+      <c r="F37" s="97"/>
       <c r="G37" s="43"/>
       <c r="H37" s="43"/>
       <c r="I37" s="44"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="47"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="97"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="96"/>
       <c r="E38" s="68"/>
-      <c r="F38" s="98"/>
+      <c r="F38" s="97"/>
       <c r="G38" s="43"/>
       <c r="H38" s="43"/>
       <c r="I38" s="44"/>
@@ -20631,70 +20631,70 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="47"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="97"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="96"/>
       <c r="E44" s="68"/>
-      <c r="F44" s="98"/>
+      <c r="F44" s="97"/>
       <c r="G44" s="43"/>
       <c r="H44" s="43"/>
       <c r="I44" s="44"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="47"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="97"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="96"/>
       <c r="E45" s="68"/>
-      <c r="F45" s="98"/>
+      <c r="F45" s="97"/>
       <c r="G45" s="43"/>
       <c r="H45" s="43"/>
       <c r="I45" s="44"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="47"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="97"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="96"/>
       <c r="E46" s="68"/>
-      <c r="F46" s="98"/>
+      <c r="F46" s="97"/>
       <c r="G46" s="43"/>
       <c r="H46" s="43"/>
       <c r="I46" s="44"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="47"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="97"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="96"/>
       <c r="E47" s="68"/>
-      <c r="F47" s="98"/>
+      <c r="F47" s="97"/>
       <c r="G47" s="43"/>
       <c r="H47" s="43"/>
       <c r="I47" s="44"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="47"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="97"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="96"/>
       <c r="E48" s="68"/>
-      <c r="F48" s="98"/>
+      <c r="F48" s="97"/>
       <c r="G48" s="43"/>
       <c r="H48" s="43"/>
       <c r="I48" s="44"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="47"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="97"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="96"/>
       <c r="E49" s="68"/>
-      <c r="F49" s="98"/>
+      <c r="F49" s="97"/>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>
       <c r="I49" s="44"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="47"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="97"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="96"/>
       <c r="E50" s="68"/>
-      <c r="F50" s="98"/>
+      <c r="F50" s="97"/>
       <c r="G50" s="43"/>
       <c r="H50" s="43"/>
       <c r="I50" s="44"/>
@@ -20741,70 +20741,70 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="47"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="97"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="96"/>
       <c r="E56" s="68"/>
-      <c r="F56" s="98"/>
+      <c r="F56" s="97"/>
       <c r="G56" s="43"/>
       <c r="H56" s="43"/>
       <c r="I56" s="44"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="47"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="97"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="96"/>
       <c r="E57" s="68"/>
-      <c r="F57" s="98"/>
+      <c r="F57" s="97"/>
       <c r="G57" s="43"/>
       <c r="H57" s="43"/>
       <c r="I57" s="44"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="47"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="97"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="96"/>
       <c r="E58" s="68"/>
-      <c r="F58" s="98"/>
+      <c r="F58" s="97"/>
       <c r="G58" s="43"/>
       <c r="H58" s="43"/>
       <c r="I58" s="44"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="47"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="97"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="96"/>
       <c r="E59" s="68"/>
-      <c r="F59" s="98"/>
+      <c r="F59" s="97"/>
       <c r="G59" s="43"/>
       <c r="H59" s="43"/>
       <c r="I59" s="44"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="47"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="97"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="96"/>
       <c r="E60" s="68"/>
-      <c r="F60" s="98"/>
+      <c r="F60" s="97"/>
       <c r="G60" s="43"/>
       <c r="H60" s="43"/>
       <c r="I60" s="44"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="47"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="97"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="96"/>
       <c r="E61" s="68"/>
-      <c r="F61" s="98"/>
+      <c r="F61" s="97"/>
       <c r="G61" s="43"/>
       <c r="H61" s="43"/>
       <c r="I61" s="44"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="47"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="97"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="96"/>
       <c r="E62" s="68"/>
-      <c r="F62" s="98"/>
+      <c r="F62" s="97"/>
       <c r="G62" s="43"/>
       <c r="H62" s="43"/>
       <c r="I62" s="44"/>
@@ -20851,70 +20851,70 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="47"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="97"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="96"/>
       <c r="E68" s="68"/>
-      <c r="F68" s="98"/>
+      <c r="F68" s="97"/>
       <c r="G68" s="43"/>
       <c r="H68" s="43"/>
       <c r="I68" s="44"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="47"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="97"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="96"/>
       <c r="E69" s="68"/>
-      <c r="F69" s="98"/>
+      <c r="F69" s="97"/>
       <c r="G69" s="43"/>
       <c r="H69" s="43"/>
       <c r="I69" s="44"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="47"/>
-      <c r="C70" s="96"/>
-      <c r="D70" s="97"/>
+      <c r="C70" s="95"/>
+      <c r="D70" s="96"/>
       <c r="E70" s="68"/>
-      <c r="F70" s="98"/>
+      <c r="F70" s="97"/>
       <c r="G70" s="43"/>
       <c r="H70" s="43"/>
       <c r="I70" s="44"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="47"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="97"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="96"/>
       <c r="E71" s="68"/>
-      <c r="F71" s="98"/>
+      <c r="F71" s="97"/>
       <c r="G71" s="43"/>
       <c r="H71" s="43"/>
       <c r="I71" s="44"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="47"/>
-      <c r="C72" s="96"/>
-      <c r="D72" s="97"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="96"/>
       <c r="E72" s="68"/>
-      <c r="F72" s="98"/>
+      <c r="F72" s="97"/>
       <c r="G72" s="43"/>
       <c r="H72" s="43"/>
       <c r="I72" s="44"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="47"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="97"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="96"/>
       <c r="E73" s="68"/>
-      <c r="F73" s="98"/>
+      <c r="F73" s="97"/>
       <c r="G73" s="43"/>
       <c r="H73" s="43"/>
       <c r="I73" s="44"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="47"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="97"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="96"/>
       <c r="E74" s="68"/>
-      <c r="F74" s="98"/>
+      <c r="F74" s="97"/>
       <c r="G74" s="43"/>
       <c r="H74" s="43"/>
       <c r="I74" s="44"/>
@@ -20937,6 +20937,12 @@
     <row r="79" spans="2:9" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C8:D14"/>
+    <mergeCell ref="F8:F14"/>
+    <mergeCell ref="C20:D26"/>
+    <mergeCell ref="F20:F26"/>
     <mergeCell ref="C68:D74"/>
     <mergeCell ref="F68:F74"/>
     <mergeCell ref="C32:D38"/>
@@ -20945,12 +20951,6 @@
     <mergeCell ref="F44:F50"/>
     <mergeCell ref="C56:D62"/>
     <mergeCell ref="F56:F62"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C8:D14"/>
-    <mergeCell ref="F8:F14"/>
-    <mergeCell ref="C20:D26"/>
-    <mergeCell ref="F20:F26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -21649,8 +21649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
@@ -22611,9 +22611,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
